--- a/data/exported.xlsx
+++ b/data/exported.xlsx
@@ -342,12 +342,18 @@
     <t>1</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -360,22 +366,19 @@
     <t>Zbigniew</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Świdowski</t>
   </si>
   <si>
     <t>Adam</t>
   </si>
   <si>
-    <t>x</t>
+    <t>16</t>
   </si>
   <si>
     <t>Skowera</t>
@@ -384,9 +387,6 @@
     <t>Marek</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Graczyk</t>
   </si>
   <si>
@@ -402,13 +402,13 @@
     <t>5</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Krzywda</t>
   </si>
   <si>
     <t>Józef</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
   <si>
     <t>6</t>
@@ -875,13 +875,13 @@
         <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" t="n">
         <v>65.0</v>
@@ -893,7 +893,7 @@
         <v>42709.0</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>108</v>
@@ -915,16 +915,16 @@
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R3" t="s">
         <v>108</v>
       </c>
       <c r="S3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T3" t="s">
         <v>110</v>
@@ -972,19 +972,19 @@
         <v>0.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-1.0</v>
+        <v>83.1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-1.0</v>
+        <v>85.85</v>
       </c>
       <c r="AK3" t="n">
-        <v>-1.0</v>
+        <v>16.7</v>
       </c>
       <c r="AL3" t="n">
-        <v>-1.0</v>
+        <v>10.6</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1.0</v>
+        <v>4.6</v>
       </c>
       <c r="AN3" t="s">
         <v>108</v>
@@ -1080,7 +1080,7 @@
         <v>0.0</v>
       </c>
       <c r="BS3" t="n">
-        <v>-1.0</v>
+        <v>42.1</v>
       </c>
       <c r="BT3" t="n">
         <v>0.0</v>
@@ -1095,7 +1095,7 @@
         <v>110</v>
       </c>
       <c r="BX3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY3" t="s">
         <v>110</v>
@@ -1185,13 +1185,13 @@
         <v>110</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC3" t="s">
         <v>110</v>
       </c>
       <c r="DD3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -1199,13 +1199,13 @@
         <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4" t="n">
         <v>65.0</v>
@@ -1217,10 +1217,10 @@
         <v>42716.0</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
         <v>108</v>
@@ -1237,16 +1237,16 @@
       </c>
       <c r="O4"/>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R4" t="s">
         <v>108</v>
       </c>
       <c r="S4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T4" t="s">
         <v>110</v>
@@ -1288,25 +1288,25 @@
         <v>1.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>-1.0</v>
+        <v>1.1</v>
       </c>
       <c r="AH4" t="n">
         <v>0.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1.0</v>
+        <v>61.7</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1.0</v>
+        <v>121.05</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1.0</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1.0</v>
+        <v>6.2</v>
       </c>
       <c r="AM4" t="n">
-        <v>-1.0</v>
+        <v>4.1</v>
       </c>
       <c r="AN4" t="s">
         <v>108</v>
@@ -1402,7 +1402,7 @@
         <v>-1.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-1.0</v>
+        <v>54.6</v>
       </c>
       <c r="BT4" t="n">
         <v>-1.0</v>
@@ -1417,7 +1417,7 @@
         <v>110</v>
       </c>
       <c r="BX4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY4" t="s">
         <v>110</v>
@@ -1503,27 +1503,27 @@
         <v>110</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DD4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
       </c>
       <c r="E5" t="n">
         <v>57.0</v>
@@ -1535,7 +1535,7 @@
         <v>42697.0</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
         <v>108</v>
@@ -1557,16 +1557,16 @@
       </c>
       <c r="O5"/>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R5" t="s">
         <v>108</v>
       </c>
       <c r="S5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T5" t="s">
         <v>110</v>
@@ -1608,25 +1608,25 @@
         <v>1.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>-1.0</v>
+        <v>1.9</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1.0</v>
+        <v>60.8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.0</v>
+        <v>126.44</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1.0</v>
+        <v>12.7</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1.0</v>
+        <v>7.3</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1.0</v>
+        <v>5.6</v>
       </c>
       <c r="AN5" t="s">
         <v>108</v>
@@ -1722,7 +1722,7 @@
         <v>0.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-1.0</v>
+        <v>2.4</v>
       </c>
       <c r="BT5" t="n">
         <v>0.0</v>
@@ -1737,7 +1737,7 @@
         <v>110</v>
       </c>
       <c r="BX5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY5" t="s">
         <v>110</v>
@@ -1827,27 +1827,27 @@
         <v>110</v>
       </c>
       <c r="DB5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC5" t="s">
         <v>110</v>
       </c>
       <c r="DD5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
         <v>67.0</v>
@@ -1862,7 +1862,7 @@
         <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
         <v>108</v>
@@ -1881,16 +1881,16 @@
       </c>
       <c r="O6"/>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T6" t="s">
         <v>110</v>
@@ -1932,25 +1932,25 @@
         <v>1.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>-1.0</v>
+        <v>3.1</v>
       </c>
       <c r="AH6" t="n">
         <v>0.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1.0</v>
+        <v>100.2</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-1.0</v>
+        <v>68.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>-1.0</v>
+        <v>12.7</v>
       </c>
       <c r="AL6" t="n">
-        <v>-1.0</v>
+        <v>4.4</v>
       </c>
       <c r="AM6" t="n">
-        <v>-1.0</v>
+        <v>2.8</v>
       </c>
       <c r="AN6" t="s">
         <v>108</v>
@@ -2046,7 +2046,7 @@
         <v>0.0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-1.0</v>
+        <v>7.2</v>
       </c>
       <c r="BT6" t="n">
         <v>0.0</v>
@@ -2061,7 +2061,7 @@
         <v>110</v>
       </c>
       <c r="BX6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY6" t="s">
         <v>110</v>
@@ -2151,7 +2151,7 @@
         <v>110</v>
       </c>
       <c r="DB6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC6" t="s">
         <v>110</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>126</v>
@@ -2171,7 +2171,7 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
         <v>68.0</v>
@@ -2186,7 +2186,7 @@
         <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
         <v>108</v>
@@ -2205,16 +2205,16 @@
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R7" t="s">
         <v>110</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T7" t="s">
         <v>110</v>
@@ -2244,7 +2244,7 @@
         <v>110</v>
       </c>
       <c r="AC7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD7" t="s">
         <v>110</v>
@@ -2262,19 +2262,19 @@
         <v>0.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1.0</v>
+        <v>109.9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-1.0</v>
+        <v>61.61</v>
       </c>
       <c r="AK7" t="n">
-        <v>-1.0</v>
+        <v>17.9</v>
       </c>
       <c r="AL7" t="n">
-        <v>-1.0</v>
+        <v>8.3</v>
       </c>
       <c r="AM7" t="n">
-        <v>-1.0</v>
+        <v>2.6</v>
       </c>
       <c r="AN7" t="s">
         <v>110</v>
@@ -2370,7 +2370,7 @@
         <v>-1.0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-1.0</v>
+        <v>11.3</v>
       </c>
       <c r="BT7" t="n">
         <v>-1.0</v>
@@ -2385,7 +2385,7 @@
         <v>110</v>
       </c>
       <c r="BX7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY7" t="s">
         <v>110</v>
@@ -2471,13 +2471,13 @@
         <v>110</v>
       </c>
       <c r="DB7" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DD7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -2485,13 +2485,13 @@
         <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E8" t="n">
         <v>66.0</v>
@@ -2503,10 +2503,10 @@
         <v>42706.0</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
         <v>108</v>
@@ -2525,16 +2525,16 @@
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R8" t="s">
         <v>108</v>
       </c>
       <c r="S8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T8" t="s">
         <v>110</v>
@@ -2576,25 +2576,25 @@
         <v>2.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.0</v>
+        <v>3.15</v>
       </c>
       <c r="AH8" t="n">
         <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>-1.0</v>
+        <v>115.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-1.0</v>
+        <v>58.41</v>
       </c>
       <c r="AK8" t="n">
-        <v>-1.0</v>
+        <v>12.6</v>
       </c>
       <c r="AL8" t="n">
-        <v>-1.0</v>
+        <v>8.3</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.0</v>
+        <v>4.2</v>
       </c>
       <c r="AN8" t="s">
         <v>108</v>
@@ -2690,7 +2690,7 @@
         <v>-1.0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-1.0</v>
+        <v>3.9</v>
       </c>
       <c r="BT8" t="n">
         <v>-1.0</v>
@@ -2705,7 +2705,7 @@
         <v>110</v>
       </c>
       <c r="BX8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY8" t="s">
         <v>110</v>
@@ -2791,13 +2791,13 @@
         <v>110</v>
       </c>
       <c r="DB8" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DD8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2823,7 +2823,7 @@
         <v>42699.0</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I9" t="s">
         <v>108</v>
@@ -2832,7 +2832,7 @@
         <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
         <v>108</v>
@@ -2845,16 +2845,16 @@
       </c>
       <c r="O9"/>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R9" t="s">
         <v>108</v>
       </c>
       <c r="S9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T9" t="s">
         <v>110</v>
@@ -2902,16 +2902,16 @@
         <v>0.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-1.0</v>
+        <v>76.2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-1.0</v>
+        <v>68.38</v>
       </c>
       <c r="AK9" t="n">
-        <v>-1.0</v>
+        <v>11.9</v>
       </c>
       <c r="AL9" t="n">
-        <v>-1.0</v>
+        <v>12.1</v>
       </c>
       <c r="AM9" t="n">
         <v>5.0</v>
@@ -3010,7 +3010,7 @@
         <v>-1.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-1.0</v>
+        <v>360.4</v>
       </c>
       <c r="BT9" t="n">
         <v>-1.0</v>
@@ -3111,13 +3111,13 @@
         <v>110</v>
       </c>
       <c r="DB9" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DD9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -3131,7 +3131,7 @@
         <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
         <v>69.0</v>
@@ -3165,16 +3165,16 @@
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R10" t="s">
         <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T10" t="s">
         <v>110</v>
@@ -3216,25 +3216,25 @@
         <v>1.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>-1.0</v>
+        <v>3.1</v>
       </c>
       <c r="AH10" t="n">
         <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1.0</v>
+        <v>70.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.0</v>
+        <v>102.53</v>
       </c>
       <c r="AK10" t="n">
-        <v>-1.0</v>
+        <v>15.6</v>
       </c>
       <c r="AL10" t="n">
         <v>7.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>-1.0</v>
+        <v>2.5</v>
       </c>
       <c r="AN10" t="s">
         <v>108</v>
@@ -3330,7 +3330,7 @@
         <v>-1.0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-1.0</v>
+        <v>23.6</v>
       </c>
       <c r="BT10" t="n">
         <v>-1.0</v>
@@ -3345,7 +3345,7 @@
         <v>110</v>
       </c>
       <c r="BX10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY10" t="s">
         <v>110</v>
@@ -3431,13 +3431,13 @@
         <v>110</v>
       </c>
       <c r="DB10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DD10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -3451,7 +3451,7 @@
         <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
         <v>65.0</v>
@@ -3463,7 +3463,7 @@
         <v>42711.0</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
         <v>108</v>
@@ -3483,16 +3483,16 @@
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R11" t="s">
         <v>110</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T11" t="s">
         <v>110</v>
@@ -3540,19 +3540,19 @@
         <v>0.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-1.0</v>
+        <v>81.9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-1.0</v>
+        <v>87.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>-1.0</v>
+        <v>11.1</v>
       </c>
       <c r="AL11" t="n">
-        <v>-1.0</v>
+        <v>5.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>-1.0</v>
+        <v>2.8</v>
       </c>
       <c r="AN11" t="s">
         <v>108</v>
@@ -3648,7 +3648,7 @@
         <v>-1.0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-1.0</v>
+        <v>2.1</v>
       </c>
       <c r="BT11" t="n">
         <v>-1.0</v>
@@ -3663,7 +3663,7 @@
         <v>110</v>
       </c>
       <c r="BX11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY11" t="s">
         <v>110</v>
@@ -3749,10 +3749,10 @@
         <v>110</v>
       </c>
       <c r="DB11" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DD11" t="s">
         <v>125</v>
@@ -3769,7 +3769,7 @@
         <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E12" t="n">
         <v>71.0</v>
@@ -3784,7 +3784,7 @@
         <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
         <v>108</v>
@@ -3803,16 +3803,16 @@
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T12" t="s">
         <v>110</v>
@@ -3854,22 +3854,22 @@
         <v>1.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>-1.0</v>
+        <v>2.7</v>
       </c>
       <c r="AH12" t="n">
         <v>0.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-1.0</v>
+        <v>77.6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-1.0</v>
+        <v>91.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>-1.0</v>
+        <v>13.7</v>
       </c>
       <c r="AL12" t="n">
-        <v>-1.0</v>
+        <v>3.6</v>
       </c>
       <c r="AM12" t="n">
         <v>4.0</v>
@@ -3968,7 +3968,7 @@
         <v>-1.0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-1.0</v>
+        <v>40.5</v>
       </c>
       <c r="BT12" t="n">
         <v>-1.0</v>
@@ -3983,7 +3983,7 @@
         <v>110</v>
       </c>
       <c r="BX12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BY12" t="s">
         <v>110</v>
@@ -4069,10 +4069,10 @@
         <v>110</v>
       </c>
       <c r="DB12" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="DC12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DD12" t="s">
         <v>145</v>
@@ -4405,13 +4405,13 @@
         <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" t="n">
         <v>77.0</v>
@@ -4423,10 +4423,10 @@
         <v>42710.0</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
         <v>108</v>
@@ -4442,16 +4442,16 @@
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q3" t="s">
         <v>108</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S3" t="s">
         <v>110</v>
@@ -4499,19 +4499,19 @@
         <v>0.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-1.0</v>
+        <v>135.6</v>
       </c>
       <c r="AI3" t="n">
         <v>43.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-1.0</v>
+        <v>11.9</v>
       </c>
       <c r="AK3" t="n">
-        <v>-1.0</v>
+        <v>4.8</v>
       </c>
       <c r="AL3" t="n">
-        <v>-1.0</v>
+        <v>3.6</v>
       </c>
       <c r="AM3" t="s">
         <v>108</v>
@@ -4592,7 +4592,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-1.0</v>
+        <v>3.9</v>
       </c>
       <c r="BN3" t="n">
         <v>-1.0</v>
@@ -4607,7 +4607,7 @@
         <v>110</v>
       </c>
       <c r="BR3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS3" t="s">
         <v>110</v>
@@ -4690,13 +4690,13 @@
         <v>110</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX3" t="s">
         <v>148</v>
@@ -4707,13 +4707,13 @@
         <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4" t="n">
         <v>86.0</v>
@@ -4725,10 +4725,10 @@
         <v>42710.0</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
         <v>108</v>
@@ -4744,16 +4744,16 @@
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S4" t="s">
         <v>110</v>
@@ -4801,19 +4801,19 @@
         <v>0.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1.0</v>
+        <v>134.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1.0</v>
+        <v>46.65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1.0</v>
+        <v>13.8</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1.0</v>
+        <v>6.3</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1.0</v>
+        <v>4.9</v>
       </c>
       <c r="AM4" t="s">
         <v>108</v>
@@ -4894,7 +4894,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.0</v>
+        <v>12.5</v>
       </c>
       <c r="BN4" t="n">
         <v>-1.0</v>
@@ -4909,7 +4909,7 @@
         <v>110</v>
       </c>
       <c r="BR4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS4" t="s">
         <v>110</v>
@@ -4992,16 +4992,16 @@
         <v>110</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
@@ -5009,13 +5009,13 @@
         <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
         <v>81.0</v>
@@ -5027,10 +5027,10 @@
         <v>42717.0</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -5046,16 +5046,16 @@
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S5" t="s">
         <v>110</v>
@@ -5091,28 +5091,28 @@
         <v>110</v>
       </c>
       <c r="AD5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE5" t="n">
         <v>2.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1.0</v>
+        <v>32.4</v>
       </c>
       <c r="AG5" t="n">
         <v>0.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-1.0</v>
+        <v>100.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1.0</v>
+        <v>65.62</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.0</v>
+        <v>9.9</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1.0</v>
+        <v>7.8</v>
       </c>
       <c r="AL5" t="n">
         <v>8.0</v>
@@ -5196,7 +5196,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-1.0</v>
+        <v>3.3</v>
       </c>
       <c r="BN5" t="n">
         <v>-1.0</v>
@@ -5211,7 +5211,7 @@
         <v>110</v>
       </c>
       <c r="BR5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS5" t="s">
         <v>110</v>
@@ -5294,16 +5294,16 @@
         <v>110</v>
       </c>
       <c r="CU5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -5311,13 +5311,13 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
         <v>79.0</v>
@@ -5329,13 +5329,13 @@
         <v>42717.0</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
         <v>108</v>
@@ -5348,16 +5348,16 @@
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S6" t="s">
         <v>110</v>
@@ -5387,7 +5387,7 @@
         <v>110</v>
       </c>
       <c r="AB6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s">
         <v>110</v>
@@ -5399,22 +5399,22 @@
         <v>3.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-1.0</v>
+        <v>4.36</v>
       </c>
       <c r="AG6" t="n">
         <v>0.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>-1.0</v>
+        <v>80.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1.0</v>
+        <v>85.6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-1.0</v>
+        <v>12.7</v>
       </c>
       <c r="AK6" t="n">
-        <v>-1.0</v>
+        <v>6.1</v>
       </c>
       <c r="AL6" t="n">
         <v>-1.0</v>
@@ -5498,7 +5498,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-1.0</v>
+        <v>3.3</v>
       </c>
       <c r="BN6" t="n">
         <v>-1.0</v>
@@ -5513,7 +5513,7 @@
         <v>110</v>
       </c>
       <c r="BR6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS6" t="s">
         <v>110</v>
@@ -5596,16 +5596,16 @@
         <v>110</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
@@ -5613,13 +5613,13 @@
         <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
         <v>73.0</v>
@@ -5631,10 +5631,10 @@
         <v>42724.0</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
         <v>108</v>
@@ -5650,16 +5650,16 @@
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S7" t="s">
         <v>110</v>
@@ -5701,25 +5701,25 @@
         <v>3.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-1.0</v>
+        <v>12.96</v>
       </c>
       <c r="AG7" t="n">
         <v>0.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-1.0</v>
+        <v>76.3</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1.0</v>
+        <v>92.79</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-1.0</v>
+        <v>14.7</v>
       </c>
       <c r="AK7" t="n">
-        <v>-1.0</v>
+        <v>8.3</v>
       </c>
       <c r="AL7" t="n">
-        <v>-1.0</v>
+        <v>3.3</v>
       </c>
       <c r="AM7" t="s">
         <v>110</v>
@@ -5800,7 +5800,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-1.0</v>
+        <v>23.1</v>
       </c>
       <c r="BN7" t="n">
         <v>-1.0</v>
@@ -5815,7 +5815,7 @@
         <v>110</v>
       </c>
       <c r="BR7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS7" t="s">
         <v>110</v>
@@ -5898,16 +5898,16 @@
         <v>110</v>
       </c>
       <c r="CU7" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -5915,13 +5915,13 @@
         <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E8" t="n">
         <v>61.0</v>
@@ -5933,10 +5933,10 @@
         <v>42724.0</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
         <v>108</v>
@@ -5952,16 +5952,16 @@
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q8" t="s">
         <v>108</v>
       </c>
       <c r="R8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S8" t="s">
         <v>110</v>
@@ -6009,16 +6009,16 @@
         <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-1.0</v>
+        <v>71.9</v>
       </c>
       <c r="AI8" t="n">
-        <v>-1.0</v>
+        <v>102.77</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-1.0</v>
+        <v>16.1</v>
       </c>
       <c r="AK8" t="n">
-        <v>-1.0</v>
+        <v>6.1</v>
       </c>
       <c r="AL8" t="n">
         <v>5.0</v>
@@ -6102,7 +6102,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>-1.0</v>
+        <v>4.1</v>
       </c>
       <c r="BN8" t="n">
         <v>-1.0</v>
@@ -6117,7 +6117,7 @@
         <v>110</v>
       </c>
       <c r="BR8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS8" t="s">
         <v>110</v>
@@ -6200,16 +6200,16 @@
         <v>110</v>
       </c>
       <c r="CU8" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -6217,13 +6217,13 @@
         <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E9" t="n">
         <v>68.0</v>
@@ -6235,10 +6235,10 @@
         <v>42682.0</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
         <v>108</v>
@@ -6254,16 +6254,16 @@
       </c>
       <c r="N9"/>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S9" t="s">
         <v>110</v>
@@ -6293,7 +6293,7 @@
         <v>110</v>
       </c>
       <c r="AB9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC9" t="s">
         <v>110</v>
@@ -6311,16 +6311,16 @@
         <v>0.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-1.0</v>
+        <v>64.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>-1.0</v>
+        <v>114.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-1.0</v>
+        <v>14.2</v>
       </c>
       <c r="AK9" t="n">
-        <v>-1.0</v>
+        <v>6.9</v>
       </c>
       <c r="AL9" t="n">
         <v>4.0</v>
@@ -6404,7 +6404,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-1.0</v>
+        <v>4.3</v>
       </c>
       <c r="BN9" t="n">
         <v>-1.0</v>
@@ -6419,7 +6419,7 @@
         <v>110</v>
       </c>
       <c r="BR9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS9" t="s">
         <v>110</v>
@@ -6505,10 +6505,10 @@
         <v>42733.0</v>
       </c>
       <c r="CV9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="CW9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX9" t="s">
         <v>155</v>
@@ -6519,13 +6519,13 @@
         <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
         <v>69.0</v>
@@ -6537,10 +6537,10 @@
         <v>42689.0</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
         <v>108</v>
@@ -6556,16 +6556,16 @@
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q10" t="s">
         <v>108</v>
       </c>
       <c r="R10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S10" t="s">
         <v>110</v>
@@ -6607,25 +6607,25 @@
         <v>2.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-1.0</v>
+        <v>3.15</v>
       </c>
       <c r="AG10" t="n">
         <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>-1.0</v>
+        <v>75.7</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1.0</v>
+        <v>94.73</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.0</v>
+        <v>13.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>-1.0</v>
+        <v>10.2</v>
       </c>
       <c r="AL10" t="n">
-        <v>-1.0</v>
+        <v>5.1</v>
       </c>
       <c r="AM10" t="s">
         <v>108</v>
@@ -6706,7 +6706,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-1.0</v>
+        <v>3.7</v>
       </c>
       <c r="BN10" t="n">
         <v>-1.0</v>
@@ -6721,7 +6721,7 @@
         <v>108</v>
       </c>
       <c r="BR10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS10" t="s">
         <v>110</v>
@@ -6804,13 +6804,13 @@
         <v>110</v>
       </c>
       <c r="CU10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX10" t="s">
         <v>155</v>
@@ -6821,13 +6821,13 @@
         <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
         <v>72.0</v>
@@ -6839,10 +6839,10 @@
         <v>42689.0</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
         <v>108</v>
@@ -6858,16 +6858,16 @@
       </c>
       <c r="N11"/>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S11" t="s">
         <v>110</v>
@@ -6909,7 +6909,7 @@
         <v>1.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-1.0</v>
+        <v>4.3</v>
       </c>
       <c r="AG11" t="n">
         <v>0.0</v>
@@ -6918,16 +6918,16 @@
         <v>110.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-1.0</v>
+        <v>60.84</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-1.0</v>
+        <v>14.7</v>
       </c>
       <c r="AK11" t="n">
-        <v>-1.0</v>
+        <v>10.7</v>
       </c>
       <c r="AL11" t="n">
-        <v>-1.0</v>
+        <v>6.9</v>
       </c>
       <c r="AM11" t="s">
         <v>108</v>
@@ -7008,7 +7008,7 @@
         <v>-1.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-1.0</v>
+        <v>8.3</v>
       </c>
       <c r="BN11" t="n">
         <v>-1.0</v>
@@ -7023,7 +7023,7 @@
         <v>110</v>
       </c>
       <c r="BR11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS11" t="s">
         <v>110</v>
@@ -7106,16 +7106,16 @@
         <v>110</v>
       </c>
       <c r="CU11" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -7123,13 +7123,13 @@
         <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E12" t="n">
         <v>87.0</v>
@@ -7141,10 +7141,10 @@
         <v>42696.0</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
         <v>108</v>
@@ -7160,16 +7160,16 @@
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q12" t="s">
         <v>110</v>
       </c>
       <c r="R12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S12" t="s">
         <v>110</v>
@@ -7217,19 +7217,19 @@
         <v>0.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>-1.0</v>
+        <v>117.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>-1.0</v>
+        <v>54.25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-1.0</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>-1.0</v>
+        <v>9.9</v>
       </c>
       <c r="AL12" t="n">
-        <v>-1.0</v>
+        <v>4.1</v>
       </c>
       <c r="AM12" t="s">
         <v>108</v>
@@ -7325,7 +7325,7 @@
         <v>110</v>
       </c>
       <c r="BR12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BS12" t="s">
         <v>110</v>
@@ -7408,13 +7408,13 @@
         <v>110</v>
       </c>
       <c r="CU12" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CV12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CW12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CX12" t="s">
         <v>155</v>
